--- a/PythonResources/RunCases/sankey.xlsx
+++ b/PythonResources/RunCases/sankey.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,11 +450,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Energy carrier</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>kWh</t>
         </is>
       </c>
@@ -462,281 +457,211 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Electricity import</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>5087859.662086158</v>
+          <t>Buildings fans + non HVAC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9361576.076445993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Electricity import</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Central chiller</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3121593.704668045</v>
+          <t>Pump coo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>427117.5129158389</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dry cooler</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Central chiller</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>plant heat rejection</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>11980457.50495133</v>
+          <t>Pump hea</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>168391.5592462147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dry cooler</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Central chiller</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>plant cooling rejection</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2605140.062403781</v>
+          <t>Pump DHW</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1125.297661889782</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dry cooler</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Economizer</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>plant heat rejection</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>41486.44823817768</v>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4751350.922267174</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dry cooler</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Economizer</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>plant cooling rejection</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>85562.63018224151</v>
+          <t>Central plant chiller</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3139053.66500762</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Central chiller</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>plant cooling</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>9544038.181594778</v>
+          <t>Dry cooler</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>36866.18578081422</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Central chiller</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>plant heating</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>3290298.534646954</v>
+          <t>Pump district</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1710739.295897347</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>Heat ambient</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ETS heat rejection</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>15683554.4759309</v>
+          <t>Dry cooler</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2925490.740262752</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ETS cooling rejection</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>8444299.53721513</v>
+          <t>Central plant chiller</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>9626644.850775661</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
+          <t>Dry cooler</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cooling load</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>cooling load</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>16124971.52513343</v>
+          <t>Heat ambient</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>12142727.90108603</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
+          <t>Central plant chiller</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Heating load</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>space heating load</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>10053002.1421445</v>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3585258.514076063</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
+          <t>Economiser</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DHW load</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>domestic hot water</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>4037508.938362157</v>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>35429.79293703954</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>Borefield</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ground</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ground anergy</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1099048.399854561</v>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>8200189.726678429</v>
       </c>
     </row>
     <row r="16">
@@ -747,136 +672,131 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ground anergy</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>341111.8187473109</v>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>387895.3139308491</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Economizer</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>plant heating</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>85562.63018224151</v>
+          <t>Pump district</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>15915196.58823537</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Economizer</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>plant cooling</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>41486.44823817768</v>
+          <t>Economiser</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>26792.88601109157</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Borefield center</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>borefield center anergy</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>6435065.030235836</v>
+          <t>Borefield</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>8102663.769605235</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Borefield center</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>borefield center anergy</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>6543748.148522371</v>
+          <t>Ground</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1077311.134359977</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Borefield perimeter</t>
+          <t>Pump district</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>borefield perimeter anergy</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1350925.214233675</v>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>9204871.622685794</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>Pump coo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Borefield perimeter</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>borefield perimeter anergy</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>1288548.30806607</v>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>16910812.62820918</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pump hea</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>10057849.38217836</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DHW</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4864741.803249995</v>
       </c>
     </row>
   </sheetData>
@@ -890,7 +810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -911,11 +831,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Energy carrier</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>kWh</t>
         </is>
       </c>
@@ -923,281 +838,211 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Electricity import</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2056562.550449408</v>
+          <t>Buildings fans + non HVAC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3503781.904898992</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Electricity import</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Central chiller</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>426859.8937158695</v>
+          <t>Pump coo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>84920.09380192525</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dry cooler</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Central chiller</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>plant heat rejection</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>79718.93841970703</v>
+          <t>Pump hea</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>90141.22606810112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dry cooler</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Central chiller</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>plant cooling rejection</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1513445.040356551</v>
+          <t>Pump DHW</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>430.6307944614983</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dry cooler</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Economizer</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>plant heat rejection</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>40452.98600859857</v>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2267813.147636606</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dry cooler</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Economizer</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>plant cooling rejection</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1665.632260707349</v>
+          <t>Central plant chiller</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>422653.6224848045</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Central chiller</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>plant cooling</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>71336.82774820313</v>
+          <t>Dry cooler</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4931.454988933623</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Central chiller</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>plant heating</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1931915.307091075</v>
+          <t>Pump district</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1207747.532610571</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>Heat ambient</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ETS heat rejection</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>731261.6237283071</v>
+          <t>Dry cooler</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1635905.761785873</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ETS cooling rejection</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>6618853.962586808</v>
+          <t>Central plant chiller</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>70234.02712835938</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
+          <t>Dry cooler</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cooling load</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>cooling load</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>842596.3235032634</v>
+          <t>Heat ambient</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>82366.65768125493</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
+          <t>Central plant chiller</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Heating load</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>space heating load</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>7162602.187785529</v>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1992026.964050616</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
+          <t>Economiser</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DHW load</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>domestic hot water</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1688821.701090218</v>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>125.8318707809883</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>Borefield</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ground</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ground anergy</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>481070.5271507144</v>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4575017.573129999</v>
       </c>
     </row>
     <row r="16">
@@ -1208,136 +1053,131 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ground anergy</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>46385.64535299151</v>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>47415.23629906756</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Economizer</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>plant heating</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>1665.632260707349</v>
+          <t>Pump district</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>861997.680670761</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Economizer</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>plant cooling</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>40452.98600859857</v>
+          <t>Economiser</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>26790.8817163299</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Borefield center</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>borefield center anergy</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>3521936.187003307</v>
+          <t>Borefield</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>84840.37763310559</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Borefield center</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>borefield center anergy</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>38043.08845226282</v>
+          <t>Ground</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>471473.2910354374</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Borefield perimeter</t>
+          <t>Pump district</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>borefield perimeter anergy</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>999639.5931061378</v>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6831205.416878411</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>Pump coo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Borefield perimeter</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>borefield perimeter anergy</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>50035.35727416029</v>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>846872.668154462</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pump hea</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>7167159.264161864</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DHW</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2030912.605535726</v>
       </c>
     </row>
   </sheetData>
@@ -1351,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1372,11 +1212,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Energy carrier</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>kWh</t>
         </is>
       </c>
@@ -1384,281 +1219,211 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Electricity import</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1152112.048107267</v>
+          <t>Buildings fans + non HVAC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2503956.179142086</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Electricity import</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Central chiller</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>839295.4621695688</v>
+          <t>Pump coo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>137480.1096873312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dry cooler</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Central chiller</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>plant heat rejection</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>3998050.14796309</v>
+          <t>Pump hea</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36926.75972342549</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dry cooler</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Central chiller</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>plant cooling rejection</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>478334.7775911805</v>
+          <t>Pump DHW</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>303.9622952749389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dry cooler</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Economizer</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>plant heat rejection</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1.228861853926843e-16</v>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1013317.749575402</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dry cooler</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Economizer</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>plant cooling rejection</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>5.55694569872399e-15</v>
+          <t>Central plant chiller</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>908304.5308464034</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Central chiller</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>plant cooling</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>3252513.211555589</v>
+          <t>Dry cooler</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17651.71998621125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Central chiller</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>plant heating</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>572092.9738158121</v>
+          <t>Pump district</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>296125.6889772483</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>Heat ambient</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ETS heat rejection</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>5042133.687125758</v>
+          <t>Dry cooler</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>552365.4746429928</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ETS cooling rejection</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1066815.905035436</v>
+          <t>Central plant chiller</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3469394.923596887</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
+          <t>Dry cooler</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cooling load</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>cooling load</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>5381027.901775866</v>
+          <t>Heat ambient</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4327444.612167097</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
+          <t>Central plant chiller</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Heating load</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>space heating load</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1446576.509745242</v>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>653863.0414033598</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
+          <t>Economiser</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DHW load</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>domestic hot water</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1144965.105416401</v>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>Borefield</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ground</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ground anergy</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>404988.3068133221</v>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3050165.161679783</v>
       </c>
     </row>
     <row r="16">
@@ -1669,136 +1434,131 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ground anergy</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>96137.24862044075</v>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>121357.5708597995</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Economizer</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>plant heating</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>5.55694569872399e-15</v>
+          <t>Pump district</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5093286.396112598</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Economizer</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>plant cooling</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>1.228861853926843e-16</v>
+          <t>Economiser</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Borefield center</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>borefield center anergy</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>2594636.448490417</v>
+          <t>Borefield</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3624725.618509852</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Borefield center</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>borefield center anergy</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>3086467.276164999</v>
+          <t>Ground</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>394898.1215747712</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Borefield perimeter</t>
+          <t>Pump district</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>borefield perimeter anergy</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>180840.074231608</v>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1356622.64773764</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>Pump coo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Borefield perimeter</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>borefield perimeter anergy</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>550768.919194534</v>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5554871.343789381</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pump hea</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1448380.300067266</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DHW</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1383079.46818868</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1833,11 +1593,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Energy carrier</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>kWh</t>
         </is>
       </c>
@@ -1845,281 +1600,211 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Electricity import</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1310586.002648577</v>
+          <t>Buildings fans + non HVAC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1936723.710034952</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Electricity import</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Central chiller</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1472672.59417416</v>
+          <t>Pump coo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>132180.9016869731</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dry cooler</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Central chiller</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>plant heat rejection</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>6386511.153142043</v>
+          <t>Pump hea</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18712.53551253272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dry cooler</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Central chiller</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>plant cooling rejection</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+          <t>Pump DHW</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>217.6927870679056</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dry cooler</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Economizer</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>plant heat rejection</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1033.462229579104</v>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>939347.7584247421</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dry cooler</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Economizer</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>plant cooling rejection</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>83896.99792153416</v>
+          <t>Central plant chiller</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1416406.942424569</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Central chiller</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>plant cooling</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>4913937.865035038</v>
+          <t>Dry cooler</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8725.324280851006</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Central chiller</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>plant heating</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+          <t>Pump district</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>67826.78274379398</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>Heat ambient</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ETS heat rejection</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>7639844.094804726</v>
+          <t>Dry cooler</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1.267662109492715e-17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ETS cooling rejection</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>15067.77393030192</v>
+          <t>Central plant chiller</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4821702.557727703</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
+          <t>Dry cooler</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cooling load</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>cooling load</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>7435267.026400173</v>
+          <t>Heat ambient</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6287948.843599956</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
+          <t>Central plant chiller</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Heating load</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>space heating load</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>462429.5657892815</v>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1157.771084162326</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
+          <t>Economiser</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DHW load</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>domestic hot water</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>666783.3395276562</v>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>35303.96106625855</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>Borefield</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ground</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ground anergy</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>98150.66783748855</v>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>144926.5956183833</v>
       </c>
     </row>
     <row r="16">
@@ -2130,136 +1815,131 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ground anergy</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>95931.99096426692</v>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>99753.40783067947</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Economizer</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>plant heating</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>83896.99792153416</v>
+          <t>Pump district</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>7588645.24566276</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Economizer</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>plant cooling</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>1033.462229579104</v>
+          <t>Economiser</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2.004294761669382</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Borefield center</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>borefield center anergy</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>125543.4026652737</v>
+          <t>Borefield</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2862371.45822611</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Borefield center</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>borefield center anergy</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>2270767.785347291</v>
+          <t>Ground</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>88442.51924432344</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Borefield perimeter</t>
+          <t>Pump district</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>borefield perimeter anergy</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>11809.97036476918</v>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>100571.0879230125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>Pump coo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Borefield perimeter</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>borefield perimeter anergy</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>490381.1507484018</v>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7981668.781877534</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pump hea</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>460944.8796589198</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DHW</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>803143.5558708379</v>
       </c>
     </row>
   </sheetData>
@@ -2273,7 +1953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2294,11 +1974,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Energy carrier</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>kWh</t>
         </is>
       </c>
@@ -2306,281 +1981,211 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Electricity import</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>568599.0608809061</v>
+          <t>Buildings fans + non HVAC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1417114.282369961</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Electricity import</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Central chiller</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>electricity</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>382765.7546084466</v>
+          <t>Pump coo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>72536.40773960931</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dry cooler</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Central chiller</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>plant heat rejection</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1515576.32106816</v>
+          <t>Pump hea</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22611.03794215544</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dry cooler</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Central chiller</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>plant cooling rejection</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>613336.9907875075</v>
+          <t>Pump DHW</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>173.0117850854393</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dry cooler</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Economizer</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>plant heat rejection</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>3.319644561962456e-15</v>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>530872.2666304231</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dry cooler</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Economizer</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>plant cooling rejection</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1.341385023207184e-16</v>
+          <t>Central plant chiller</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>391688.5692518435</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Central chiller</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>plant cooling</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1305747.970566224</v>
+          <t>Dry cooler</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5557.686524818335</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Central chiller</t>
+          <t>Electricity</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>plant heating</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>786263.309428661</v>
+          <t>Pump district</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>139039.2915657346</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>Heat ambient</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ETS heat rejection</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2269718.568167938</v>
+          <t>Dry cooler</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>737172.1260784965</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ETS cooling rejection</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>743458.8617738399</v>
+          <t>Central plant chiller</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1265283.007311376</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
+          <t>Dry cooler</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cooling load</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>cooling load</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2466080.273454123</v>
+          <t>Heat ambient</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1444917.474847137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
+          <t>Central plant chiller</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Heating load</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>space heating load</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>981410.8125788143</v>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>938151.599252105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ETS chiller</t>
+          <t>Economiser</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DHW load</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>domestic hot water</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>536938.7923278809</v>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>Borefield</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ground</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ground anergy</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>114820.0605059115</v>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>429996.194219622</v>
       </c>
     </row>
     <row r="16">
@@ -2591,136 +2196,131 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ground anergy</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>102650.1059891626</v>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>119363.3143472756</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Economizer</t>
+          <t>ETS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>plant heating</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>1.341385023207184e-16</v>
+          <t>Pump district</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2371162.48857627</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Economizer</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>plant cooling</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>3.319644561962456e-15</v>
+          <t>Economiser</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Borefield center</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>borefield center anergy</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>192906.0303895128</v>
+          <t>Borefield</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1530687.030766852</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Borefield center</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>borefield center anergy</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1148359.684034141</v>
+          <t>Ground</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>122486.941324751</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Borefield perimeter</t>
+          <t>Pump district</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>borefield perimeter anergy</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>158612.9035073952</v>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>916361.990800313</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Reservoir loop</t>
+          <t>Pump coo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Borefield perimeter</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>borefield perimeter anergy</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>197339.5786470991</v>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2527399.834387797</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pump hea</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>981364.938290313</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ETS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DHW</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>647606.1736547512</v>
       </c>
     </row>
   </sheetData>
